--- a/Data/Results/FirstResultVigilant.xlsx
+++ b/Data/Results/FirstResultVigilant.xlsx
@@ -2612,7 +2612,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -2659,7 +2659,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2706,7 +2706,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2847,7 +2847,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0Hours</t>
+          <t>8Hours</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3070,7 +3070,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>40Total Hours</t>
+          <t>48Total Hours</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4514,10 +4514,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4526,22 +4526,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4552,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4561,10 +4561,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -4573,22 +4573,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4599,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4608,10 +4608,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -4620,22 +4620,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4655,10 +4655,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -4667,22 +4667,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4702,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -4714,22 +4714,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4749,10 +4749,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4761,22 +4761,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4796,10 +4796,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4843,10 +4843,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -4855,22 +4855,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -4931,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -5119,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -5636,67 +5636,67 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>0Hours</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>0Hours</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0Hours</t>
+          <t>8Hours</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0Hours</t>
+          <t>8Hours</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0Hours</t>
+          <t>8Hours</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0Hours</t>
+          <t>8Hours</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0Hours</t>
+          <t>8Hours</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0Hours</t>
+          <t>8Hours</t>
         </is>
       </c>
     </row>
@@ -5712,7 +5712,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0Total Hours</t>
+          <t>40Total Hours</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -5723,7 +5723,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0Total Hours</t>
+          <t>48Total Hours</t>
         </is>
       </c>
     </row>
@@ -8468,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8562,7 +8562,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8609,7 +8609,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -8656,7 +8656,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -9226,13 +9226,13 @@
         <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
@@ -9273,13 +9273,13 @@
         <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
@@ -9320,13 +9320,13 @@
         <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
@@ -9367,13 +9367,13 @@
         <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
@@ -9414,13 +9414,13 @@
         <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
@@ -9461,13 +9461,13 @@
         <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
         <v>3</v>
@@ -9508,13 +9508,13 @@
         <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
@@ -9555,13 +9555,13 @@
         <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
         <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
@@ -9599,7 +9599,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0Hours</t>
+          <t>8Hours</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -9609,7 +9609,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0Hours</t>
+          <t>8Hours</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -9619,7 +9619,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0Hours</t>
+          <t>8Hours</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -9675,7 +9675,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>24Total Hours</t>
+          <t>48Total Hours</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
@@ -12484,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
@@ -12531,7 +12531,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
@@ -12625,7 +12625,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
@@ -12672,7 +12672,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>3</v>
@@ -12719,7 +12719,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>3</v>
@@ -12766,7 +12766,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
@@ -13180,10 +13180,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -13227,10 +13227,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -13274,10 +13274,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -13321,10 +13321,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -13368,10 +13368,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -13415,10 +13415,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -13462,10 +13462,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -13509,10 +13509,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -13557,22 +13557,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>0Hours</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
-        </is>
-      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0Hours</t>
+          <t>8Hours</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -13638,7 +13638,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>24Total Hours</t>
+          <t>48Total Hours</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -24699,7 +24699,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -24746,7 +24746,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -24793,7 +24793,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -24840,7 +24840,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -24887,7 +24887,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -24934,7 +24934,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -24981,7 +24981,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -25028,7 +25028,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -25456,7 +25456,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0Hours</t>
+          <t>8Hours</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -25527,7 +25527,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>32Total Hours</t>
+          <t>40Total Hours</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -25653,13 +25653,13 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -25700,13 +25700,13 @@
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -25747,13 +25747,13 @@
         <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -25841,13 +25841,13 @@
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -25888,13 +25888,13 @@
         <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -25935,13 +25935,13 @@
         <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -25982,13 +25982,13 @@
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -26047,7 +26047,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -26094,7 +26094,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -26188,7 +26188,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -26235,7 +26235,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -26282,7 +26282,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -26329,7 +26329,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -26376,7 +26376,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -26464,7 +26464,7 @@
         <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -26511,7 +26511,7 @@
         <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -26558,7 +26558,7 @@
         <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -26605,7 +26605,7 @@
         <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -26652,7 +26652,7 @@
         <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -26699,7 +26699,7 @@
         <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -26746,7 +26746,7 @@
         <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -26792,37 +26792,37 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
           <t>0Hours</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>8Hours</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -26848,7 +26848,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>24Total Hours</t>
+          <t>40Total Hours</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -26859,7 +26859,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>16Total Hours</t>
+          <t>40Total Hours</t>
         </is>
       </c>
     </row>
@@ -27341,13 +27341,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -27435,13 +27435,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -27482,13 +27482,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -27529,13 +27529,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -27623,13 +27623,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28098,17 +28098,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0Hours</t>
+          <t>8Hours</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0Hours</t>
+          <t>8Hours</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0Hours</t>
+          <t>8Hours</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -28169,7 +28169,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>8Total Hours</t>
+          <t>32Total Hours</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -28283,7 +28283,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -28307,7 +28307,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -28354,7 +28354,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -28401,7 +28401,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -28448,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -28471,7 +28471,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -28495,7 +28495,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -28565,7 +28565,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -28589,7 +28589,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -28636,7 +28636,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -29414,47 +29414,47 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>0Hours</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>8Hours</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>0Hours</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>8Hours</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>0Hours</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>8Hours</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>8Hours</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -29490,7 +29490,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>24Total Hours</t>
+          <t>32Total Hours</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -29501,7 +29501,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>32Total Hours</t>
+          <t>40Total Hours</t>
         </is>
       </c>
     </row>
@@ -29607,7 +29607,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -29654,7 +29654,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -29701,7 +29701,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -29795,7 +29795,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -29842,7 +29842,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -29889,7 +29889,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -29936,7 +29936,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -30010,7 +30010,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
@@ -30057,7 +30057,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
@@ -30104,7 +30104,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
@@ -30151,7 +30151,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>1</v>
@@ -30198,7 +30198,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
@@ -30245,7 +30245,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
         <v>1</v>
@@ -30292,7 +30292,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N16" t="n">
         <v>1</v>
@@ -30339,7 +30339,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
         <v>1</v>
@@ -30740,52 +30740,52 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>0Hours</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>0Hours</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>8Hours</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>8Hours</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>8Hours</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>8Hours</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>8Hours</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>8Hours</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -30811,7 +30811,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>40Total Hours</t>
+          <t>48Total Hours</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -30822,7 +30822,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>40Total Hours</t>
+          <t>48Total Hours</t>
         </is>
       </c>
     </row>
@@ -30925,7 +30925,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -30934,7 +30934,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -30946,22 +30946,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -30972,7 +30972,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -30981,7 +30981,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -30993,22 +30993,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -31019,7 +31019,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -31028,7 +31028,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -31040,22 +31040,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -31066,7 +31066,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -31075,7 +31075,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -31087,22 +31087,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -31113,7 +31113,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -31122,7 +31122,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -31134,22 +31134,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -31160,7 +31160,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -31169,7 +31169,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -31181,22 +31181,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -31207,7 +31207,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -31216,7 +31216,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -31228,22 +31228,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -31254,7 +31254,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -31263,7 +31263,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -31275,22 +31275,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -31304,7 +31304,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -31351,7 +31351,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -31398,7 +31398,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -31445,7 +31445,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -31492,7 +31492,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -31539,7 +31539,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -31586,7 +31586,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -31633,7 +31633,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -31689,10 +31689,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -31736,10 +31736,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -31783,10 +31783,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -31830,10 +31830,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -31877,10 +31877,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -31924,10 +31924,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -31971,10 +31971,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -32018,10 +32018,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -32056,67 +32056,67 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>0Hours</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>0Hours</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0Hours</t>
+          <t>8Hours</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0Hours</t>
+          <t>8Hours</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0Hours</t>
+          <t>8Hours</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0Hours</t>
+          <t>8Hours</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0Hours</t>
+          <t>8Hours</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0Hours</t>
+          <t>8Hours</t>
         </is>
       </c>
     </row>
@@ -32132,7 +32132,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0Total Hours</t>
+          <t>40Total Hours</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -32143,7 +32143,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0Total Hours</t>
+          <t>48Total Hours</t>
         </is>
       </c>
     </row>
@@ -33588,7 +33588,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -33635,7 +33635,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -33682,7 +33682,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -33729,7 +33729,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -33776,7 +33776,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -33823,7 +33823,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -33870,7 +33870,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -33917,7 +33917,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -33943,7 +33943,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -33990,7 +33990,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -34037,7 +34037,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -34084,7 +34084,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -34131,7 +34131,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -34178,7 +34178,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -34225,7 +34225,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -34272,7 +34272,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -34349,7 +34349,7 @@
         <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -34396,7 +34396,7 @@
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -34443,7 +34443,7 @@
         <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -34490,7 +34490,7 @@
         <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -34537,7 +34537,7 @@
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -34584,7 +34584,7 @@
         <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -34631,7 +34631,7 @@
         <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -34678,7 +34678,7 @@
         <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -34698,57 +34698,57 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>0Hours</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>8Hours</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>8Hours</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>0Hours</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>8Hours</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>8Hours</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>8Hours</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>8Hours</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -34774,7 +34774,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>40Total Hours</t>
+          <t>48Total Hours</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -34785,7 +34785,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>24Total Hours</t>
+          <t>40Total Hours</t>
         </is>
       </c>
     </row>
@@ -38857,7 +38857,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -38881,7 +38881,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -38904,7 +38904,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -38928,7 +38928,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -38951,7 +38951,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -38975,7 +38975,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -38998,7 +38998,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -39022,7 +39022,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -39045,7 +39045,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -39069,7 +39069,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -39092,7 +39092,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -39116,7 +39116,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -39139,7 +39139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -39163,7 +39163,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -39186,7 +39186,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -39210,7 +39210,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -39239,10 +39239,10 @@
         <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
         <v>3</v>
@@ -39286,10 +39286,10 @@
         <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
@@ -39333,10 +39333,10 @@
         <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>3</v>
@@ -39380,10 +39380,10 @@
         <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>3</v>
@@ -39427,10 +39427,10 @@
         <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
         <v>3</v>
@@ -39474,10 +39474,10 @@
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
         <v>3</v>
@@ -39521,10 +39521,10 @@
         <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
         <v>3</v>
@@ -39568,10 +39568,10 @@
         <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
         <v>3</v>
@@ -39992,47 +39992,47 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>8Hours</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
           <t>0Hours</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>8Hours</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>8Hours</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>8Hours</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>8Hours</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>0Hours</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -40058,7 +40058,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>24Total Hours</t>
+          <t>48Total Hours</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -40069,7 +40069,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>40Total Hours</t>
+          <t>48Total Hours</t>
         </is>
       </c>
     </row>
